--- a/02-Pruebas_Manuales/Casos_de_Prueba.xlsx
+++ b/02-Pruebas_Manuales/Casos_de_Prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIEGO\Desktop\Practicas-Personales\QA\Portafolio QA Automatizacion\02-Pruebas_Manuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16836CD7-A8A4-4E31-818B-4A37466FE4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED8965C-ACE0-4BA4-8E3B-54C72024EBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="98">
   <si>
     <t>ID</t>
   </si>
@@ -319,9 +319,6 @@
     <t>Validar que no se permiten fechas pasadas.</t>
   </si>
   <si>
-    <t>El empleado debe estar ubicado en el modulo "leave", en la seccion "leave list"</t>
-  </si>
-  <si>
     <t>El empleado debe estar ubicado en el modulo "leave", en la seccion "assign leave"</t>
   </si>
   <si>
@@ -359,28 +356,56 @@
     <t>Validar que se pueden visualizar solicitudes pendientes.</t>
   </si>
   <si>
-    <t>Validar que se puede aprobar o rechazar y que se notifica al empleado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. ingresar la fecha inicio "01-01-2025" de la busqueda
-2. ingresar la fecha de fin "31-12-2025" de la busqueda
-3. Seleccionar los estados de la solicitud como "pediente de aprobar y agendado"
-4. Clic en el boton buscar </t>
-  </si>
-  <si>
-    <t>Se muestra una tabla con todas las solicitudes en el intervalo de fecha y estado buscado.</t>
-  </si>
-  <si>
     <t>Pendiente</t>
   </si>
   <si>
-    <t>No se tiene ningun empleado con el suficiente balance de dias para poder aceptar una solicitud</t>
-  </si>
-  <si>
     <t>Validar que el empleado puede consultar su historial correctamente.</t>
   </si>
   <si>
     <t>HU-008 CP-017</t>
+  </si>
+  <si>
+    <t>Se muestra en la parte inferior, un mensaje "Successfully Register" y queda registrado en la lista de empleados con estado "schedule"</t>
+  </si>
+  <si>
+    <t>Se muestra una tabla con todas las solicitudes del estado "pendientes de aprobar".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Selecciona el estado "pediente de aprobar"
+2. Clic en el boton buscar </t>
+  </si>
+  <si>
+    <t>1. Selecciona el estado "pediente de aprobar"
+2. Clic en el boton buscar 
+3. Identifica la solicitud del empleado
+4. En la columna actions, se visualiza los botones "aceptar" y "rechazar"
+5. Clic en aceptar</t>
+  </si>
+  <si>
+    <t>Se muestra un mensaje "Exitosamente aceptado" y se visualiza en la "leave list" la solicitud "agendada"</t>
+  </si>
+  <si>
+    <t>HU-007 CP-018</t>
+  </si>
+  <si>
+    <t>Validar que se puede aprobar la solicitud</t>
+  </si>
+  <si>
+    <t>1. El administrador debe estar ubicado en el modulo "leave", en la seccion "leave list".
+2. Un empleado debio enviar una solicitud de permiso</t>
+  </si>
+  <si>
+    <t>1. Selecciona el estado "pediente de aprobar"
+2. Clic en el boton buscar 
+3. Identifica la solicitud del empleado
+4. En la columna actions, se visualiza los botones "aceptar" y "rechazar"
+5. Clic en rechazar</t>
+  </si>
+  <si>
+    <t>Se muestra un mensaje "Exitosamenterechazado" y se le notifica al empleado</t>
+  </si>
+  <si>
+    <t>Validar que se puede rechazar la solicitud</t>
   </si>
 </sst>
 </file>
@@ -2831,354 +2856,6 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
-    <col min="9" max="9" width="22.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEBC15F-3F56-43C1-8C34-D756CDE58D50}">
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -3226,16 +2903,16 @@
     </row>
     <row r="2" spans="1:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>87</v>
@@ -3251,24 +2928,28 @@
     </row>
     <row r="3" spans="1:9" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="H3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -3279,6 +2960,368 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEBC15F-3F56-43C1-8C34-D756CDE58D50}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="9" max="9" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3570,10 +3613,10 @@
     </row>
     <row r="2" spans="1:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
@@ -3581,7 +3624,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I2" s="3"/>
     </row>
@@ -3594,7 +3637,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I3" s="3"/>
     </row>

--- a/02-Pruebas_Manuales/Casos_de_Prueba.xlsx
+++ b/02-Pruebas_Manuales/Casos_de_Prueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIEGO\Desktop\Practicas-Personales\QA\Portafolio QA Automatizacion\02-Pruebas_Manuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED8965C-ACE0-4BA4-8E3B-54C72024EBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC6694A-5FB1-4D5C-959C-D35789CC028B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HU-001" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="HU-006" sheetId="9" r:id="rId6"/>
     <sheet name="HU-007" sheetId="10" r:id="rId7"/>
     <sheet name="HU-008" sheetId="12" r:id="rId8"/>
+    <sheet name="HU-009" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="127">
   <si>
     <t>ID</t>
   </si>
@@ -316,53 +317,10 @@
     <t>HU-006 CP-015</t>
   </si>
   <si>
-    <t>Validar que no se permiten fechas pasadas.</t>
-  </si>
-  <si>
-    <t>El empleado debe estar ubicado en el modulo "leave", en la seccion "assign leave"</t>
-  </si>
-  <si>
     <t>Validar que se puede seleccionar rango de fechas y enviar solicitud de licencia por vacaciones.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. ingresar el nombre del  empleado en la caja de texto "nombre empleado" - "Diego Franco Paz Verdu"
-2. Seleccionar el tipo de licencia "US Vacation"
-3. Seleccionar la fecha de salida "21-05-2025"
-4. Seleccionar la fecha de entrada "23-05-2025"
-5. Escribir el comentario "Prueba QA - diego"
-6. Click en el boton "solicitar" </t>
-  </si>
-  <si>
-    <t>Se muestra en la parte inferior, un mensaje "Successfully Register"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. ingresar el nombre del  empleado en la caja de texto "nombre empleado" - "Diego Franco Paz Verdu"
-2. Seleccionar el tipo de licencia "US Vacation"
-3. Seleccionar la fecha de salida "16-05-2025"
-4. Seleccionar la fecha de entrada "18-05-2025"
-5. Escribir el comentario "Prueba QA - diego"
-6. Click en el boton "solicitar" </t>
-  </si>
-  <si>
-    <t>Se muestra un mensaje de error en las fechas "las fechas seleccionadas son pasadas"</t>
-  </si>
-  <si>
-    <t>HU-007 CP-016</t>
-  </si>
-  <si>
-    <t>HU-007 CP-017</t>
-  </si>
-  <si>
     <t>Validar que se pueden visualizar solicitudes pendientes.</t>
-  </si>
-  <si>
-    <t>Pendiente</t>
-  </si>
-  <si>
-    <t>Validar que el empleado puede consultar su historial correctamente.</t>
-  </si>
-  <si>
-    <t>HU-008 CP-017</t>
   </si>
   <si>
     <t>Se muestra en la parte inferior, un mensaje "Successfully Register" y queda registrado en la lista de empleados con estado "schedule"</t>
@@ -385,9 +343,6 @@
     <t>Se muestra un mensaje "Exitosamente aceptado" y se visualiza en la "leave list" la solicitud "agendada"</t>
   </si>
   <si>
-    <t>HU-007 CP-018</t>
-  </si>
-  <si>
     <t>Validar que se puede aprobar la solicitud</t>
   </si>
   <si>
@@ -406,6 +361,173 @@
   </si>
   <si>
     <t>Validar que se puede rechazar la solicitud</t>
+  </si>
+  <si>
+    <t>Validar que se puede ver el historial de permisos del empleado correctamente.</t>
+  </si>
+  <si>
+    <t>Validar historial del empleado buscado por sub unidad incorrecta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar que se puede ver el listado general de permisos tomados y pendientes </t>
+  </si>
+  <si>
+    <t>Validar el listado general de permisos tomados y pendientes buscados por fechas en formato incorrecto</t>
+  </si>
+  <si>
+    <t>Validar el listado general de permisos tomados y pendientes buscados por fechas incorrectas</t>
+  </si>
+  <si>
+    <t>1. Ingresar la fecha desde - 2025-01-01
+2- Ingresar la fecha hasta - 2025-24-08
+3. Seleccionar todos los estados de sus solicitudes (Pending Approval, Rejected, Cancelled, Scheduled, Taken)
+4. Ingresar nombre completo "diego paz verdu"
+5. Seleccionar la sub unidad del empleado incorrecta "administration"
+5. Clic en "Search"</t>
+  </si>
+  <si>
+    <t>Se muestra un mensaje "X records found" y una tabla en la parte inferior, con todos las solicitudes y sus respectivos datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se muestra un mensaje "Not records found" y una tabla vacia </t>
+  </si>
+  <si>
+    <t>1. Ingresar la fecha desde - 2025-01-01
+2- Ingresar la fecha hasta - 2025-24-08
+3. Seleccionar todos los estados de sus solicitudes (Pending Approval, Rejected, Cancelled, Scheduled, Taken)
+4. Ingresar nombre completo "diego paz verdu"
+5. Seleccionar sub unidad del empleado "QA Assurance"
+5. Clic en "Search"</t>
+  </si>
+  <si>
+    <t>1. El administrador debe estar ubicado en el modulo "leave", en la seccion "leave list".
+2. El empleado buscado debe tener al menos una solicitud o un permiso tomado</t>
+  </si>
+  <si>
+    <t>1. El administrador debe estar ubicado en el modulo "leave", en la seccion "leave list".
+2. Debe existir al menos una solicitud y un permiso tomado</t>
+  </si>
+  <si>
+    <t>1. Ingresar la fecha desde - 2025-01-01
+2- Ingresar la fecha hasta - 2025-24-08
+3. Seleccionar todos los estados de sus solicitudes (Pending Approval, Scheduled, Taken)
+4. Ingresar nombre completo "diego paz verdu"
+5. Seleccionar sub unidad del empleado "QA Assurance"
+5. Clic en "Search"</t>
+  </si>
+  <si>
+    <t>Se muestra un mensaje "2 records found" y una tabla en la parte inferior, con todos las solicitudes y sus respectivos datos</t>
+  </si>
+  <si>
+    <t>1. Ingresar la fecha desde - 01-01-2025
+2- Ingresar la fecha hasta - 24-08-2025
+3. Seleccionar todos los estados de sus solicitudes (Pending Approval, Scheduled, Taken)
+4. Ingresar nombre completo "diego paz verdu"
+5. Seleccionar sub unidad del empleado "QA Assurance"
+5. Clic en "Search"</t>
+  </si>
+  <si>
+    <t>Se muestra un mensaje de error en la caja de fecha "Should be a valid date in yyyy-dd-mm format"</t>
+  </si>
+  <si>
+    <t>Se muestra un mensaje de error en la caja de fecha "To date should be after from date"</t>
+  </si>
+  <si>
+    <t>1. Ingresar la fecha desde - 2025-05-01
+2- Ingresar la fecha hasta - 2025-01-12
+3. Seleccionar todos los estados de sus solicitudes (Pending Approval, Scheduled, Taken)
+4. Ingresar nombre completo "diego paz verdu"
+5. Seleccionar sub unidad del empleado "QA Assurance"
+5. Clic en "Search"</t>
+  </si>
+  <si>
+    <t>validar que no se permitan fechas que excedan el balance de dias</t>
+  </si>
+  <si>
+    <t>validar que no se sobrepongan las fechas de la solicitud con otra solicitud</t>
+  </si>
+  <si>
+    <t>Validar que no se permitan fechas incorrectas</t>
+  </si>
+  <si>
+    <t>Validar que no pueda seleccionar fechas con formato incorrecto</t>
+  </si>
+  <si>
+    <t>Validar que no se permiten rango de fechas pasadas.</t>
+  </si>
+  <si>
+    <t>1. El empleado debe estar ubicado en el modulo "leave", en la seccion "assign leave"
+2. El empleado debe tener asignado dias de licencia en el tipo de licencia que se va a crear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ingresar el nombre del  empleado en la caja de texto "nombre empleado" - "Diego Franco Paz Verdu"
+2. Seleccionar el tipo de licencia "US Vacation"
+3. Seleccionar la fecha de salida "29-052025"
+4. Seleccionar la fecha de entrada "29-052025-" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ingresar el nombre del  empleado en la caja de texto "nombre empleado" - "Diego Franco Paz Verdu"
+2. Seleccionar el tipo de licencia "US Vacation"
+3. Seleccionar la fecha de salida "2025-29-05"
+4. Seleccionar la fecha de entrada "2025-30-05"
+6. El balance de dias de licencia debe ser correcto
+5. Escribir el comentario "Prueba QA - diego"
+6. Click en el boton "solicitar" </t>
+  </si>
+  <si>
+    <t>Se muestra en la parte inferior, un mensaje "SuccessfullySaved"</t>
+  </si>
+  <si>
+    <t>Se muestra un mensaje en la parte inferior izquierda "Warning - Failed to submit".
+Otro mensaje que indica "Overlapping Leave Request(s) Found" y una tabla indicando los dias que se cruzan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ingresar el nombre del  empleado en la caja de texto "nombre empleado" - "Diego Franco Paz Verdu"
+2. Seleccionar el tipo de licencia "US Vacation"
+3. Seleccionar la fecha de salida "2025-16-06"
+4. Seleccionar la fecha de entrada "2025-30-06"
+6. El balance de dias de licencia es incorrecto
+5. Escribir el comentario "Prueba QA - diego"
+6. Click en el boton "solicitar" </t>
+  </si>
+  <si>
+    <t>Se muestra un modal indicando "Confirm Leave Assignment" "Employee does not have sufficient leave balance for leave request. Click OK to confirm leave assignment."</t>
+  </si>
+  <si>
+    <t>HU-006 CP-016</t>
+  </si>
+  <si>
+    <t>HU-006 CP-017</t>
+  </si>
+  <si>
+    <t>HU-006 CP-018</t>
+  </si>
+  <si>
+    <t>HU-006 CP-019</t>
+  </si>
+  <si>
+    <t>HU-007 CP-020</t>
+  </si>
+  <si>
+    <t>HU-007 CP-021</t>
+  </si>
+  <si>
+    <t>HU-007 CP-022</t>
+  </si>
+  <si>
+    <t>HU-008 CP-023</t>
+  </si>
+  <si>
+    <t>HU-008 CP-024</t>
+  </si>
+  <si>
+    <t>HU-009 CP-025</t>
+  </si>
+  <si>
+    <t>HU-009 CP-026</t>
+  </si>
+  <si>
+    <t>HU-009 CP-027</t>
   </si>
 </sst>
 </file>
@@ -450,7 +572,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,12 +600,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9999"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,7 +676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -766,6 +882,505 @@
         <a:xfrm>
           <a:off x="10066020" y="2788921"/>
           <a:ext cx="1303020" cy="539432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>693420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1246198</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1242060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEBBD760-0FCB-4116-9F57-4BD847BA087A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10134600" y="3268980"/>
+          <a:ext cx="1177618" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>708661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1581</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1318261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F6C323B-6338-C31D-AED0-E78273A39579}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10058400" y="5318761"/>
+          <a:ext cx="1319841" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>937261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1301567</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1508760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D493F2-87DC-F3EB-C620-7BA3D1E9869D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10088880" y="7581901"/>
+          <a:ext cx="1278707" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>906780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1506869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2206296-C066-DD5C-F22B-8C7B1AD6ACE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10081260" y="1104900"/>
+          <a:ext cx="1295400" cy="600089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>49981</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1165861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1216993</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1722121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82686C9D-7E0C-ACD1-A63E-73A5BFBF8300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10116001" y="10187941"/>
+          <a:ext cx="1167012" cy="556260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1067824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1277389</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1632507</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E8BF4D-4B9A-68E9-23DC-9B41A52450F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10126980" y="12833104"/>
+          <a:ext cx="1216429" cy="564683"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>541020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1236047</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1104900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C3C7A73-F87E-8EDA-918E-72A7B719FDE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10439400" y="2773680"/>
+          <a:ext cx="1205567" cy="563880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>693420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1230295</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1242060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C0D417A-4AB2-A741-45DD-8D7219B15A16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10469880" y="891540"/>
+          <a:ext cx="1169335" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>800100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1264920</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1365024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47CD251A-EEDB-8086-34C0-950CD7081439}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10675620" y="998220"/>
+          <a:ext cx="1211580" cy="564924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1866900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>541021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1214714</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>982981</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09795700-18F8-1BEC-9DDD-5FF95906F289}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10576560" y="4846321"/>
+          <a:ext cx="1260434" cy="441960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>71893</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>507220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1146313</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>879483</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA0AF6B-97DF-8652-F5F9-CAB593729734}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10693510" y="2740211"/>
+          <a:ext cx="1074420" cy="372263"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2853,10 +3468,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD43CBEF-11BA-4209-BFDD-2FBDF5C20F9C}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2901,24 +3516,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="7" t="s">
@@ -2926,73 +3541,129 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>74</v>
+      <c r="B3" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+    <row r="6" spans="1:9" ht="216" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+    <row r="7" spans="1:9" ht="212.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -3193,9 +3864,32 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3203,8 +3897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEBC15F-3F56-43C1-8C34-D756CDE58D50}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3251,22 +3945,22 @@
     </row>
     <row r="2" spans="1:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="7" t="s">
@@ -3276,22 +3970,22 @@
     </row>
     <row r="3" spans="1:9" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="7" t="s">
@@ -3301,22 +3995,22 @@
     </row>
     <row r="4" spans="1:9" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -3563,10 +4257,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEF3AEA-C641-48D6-8BA3-37B5A9916FB2}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3574,7 +4268,7 @@
     <col min="1" max="1" width="15.109375" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="27.88671875" customWidth="1"/>
     <col min="7" max="7" width="19.109375" customWidth="1"/>
@@ -3613,39 +4307,59 @@
     </row>
     <row r="2" spans="1:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="11" t="s">
-        <v>84</v>
+      <c r="H2" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+    <row r="3" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="11" t="s">
-        <v>84</v>
+      <c r="H3" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3872,6 +4586,358 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC58DDE-7AA3-4E8C-8BEF-9A7E30D6A29E}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="9" max="9" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
@@ -3884,6 +4950,8 @@
       <c r="I25" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/02-Pruebas_Manuales/Casos_de_Prueba.xlsx
+++ b/02-Pruebas_Manuales/Casos_de_Prueba.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIEGO\Desktop\Practicas-Personales\QA\Portafolio QA Automatizacion\02-Pruebas_Manuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC6694A-5FB1-4D5C-959C-D35789CC028B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AD666A-64D9-4EA5-8668-405E00E6DAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HU-001" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="188">
   <si>
     <t>ID</t>
   </si>
@@ -363,41 +363,7 @@
     <t>Validar que se puede rechazar la solicitud</t>
   </si>
   <si>
-    <t>Validar que se puede ver el historial de permisos del empleado correctamente.</t>
-  </si>
-  <si>
-    <t>Validar historial del empleado buscado por sub unidad incorrecta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validar que se puede ver el listado general de permisos tomados y pendientes </t>
-  </si>
-  <si>
-    <t>Validar el listado general de permisos tomados y pendientes buscados por fechas en formato incorrecto</t>
-  </si>
-  <si>
-    <t>Validar el listado general de permisos tomados y pendientes buscados por fechas incorrectas</t>
-  </si>
-  <si>
-    <t>1. Ingresar la fecha desde - 2025-01-01
-2- Ingresar la fecha hasta - 2025-24-08
-3. Seleccionar todos los estados de sus solicitudes (Pending Approval, Rejected, Cancelled, Scheduled, Taken)
-4. Ingresar nombre completo "diego paz verdu"
-5. Seleccionar la sub unidad del empleado incorrecta "administration"
-5. Clic en "Search"</t>
-  </si>
-  <si>
-    <t>Se muestra un mensaje "X records found" y una tabla en la parte inferior, con todos las solicitudes y sus respectivos datos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se muestra un mensaje "Not records found" y una tabla vacia </t>
-  </si>
-  <si>
-    <t>1. Ingresar la fecha desde - 2025-01-01
-2- Ingresar la fecha hasta - 2025-24-08
-3. Seleccionar todos los estados de sus solicitudes (Pending Approval, Rejected, Cancelled, Scheduled, Taken)
-4. Ingresar nombre completo "diego paz verdu"
-5. Seleccionar sub unidad del empleado "QA Assurance"
-5. Clic en "Search"</t>
   </si>
   <si>
     <t>1. El administrador debe estar ubicado en el modulo "leave", en la seccion "leave list".
@@ -408,37 +374,13 @@
 2. Debe existir al menos una solicitud y un permiso tomado</t>
   </si>
   <si>
-    <t>1. Ingresar la fecha desde - 2025-01-01
-2- Ingresar la fecha hasta - 2025-24-08
-3. Seleccionar todos los estados de sus solicitudes (Pending Approval, Scheduled, Taken)
-4. Ingresar nombre completo "diego paz verdu"
-5. Seleccionar sub unidad del empleado "QA Assurance"
-5. Clic en "Search"</t>
-  </si>
-  <si>
     <t>Se muestra un mensaje "2 records found" y una tabla en la parte inferior, con todos las solicitudes y sus respectivos datos</t>
   </si>
   <si>
-    <t>1. Ingresar la fecha desde - 01-01-2025
-2- Ingresar la fecha hasta - 24-08-2025
-3. Seleccionar todos los estados de sus solicitudes (Pending Approval, Scheduled, Taken)
-4. Ingresar nombre completo "diego paz verdu"
-5. Seleccionar sub unidad del empleado "QA Assurance"
-5. Clic en "Search"</t>
-  </si>
-  <si>
     <t>Se muestra un mensaje de error en la caja de fecha "Should be a valid date in yyyy-dd-mm format"</t>
   </si>
   <si>
     <t>Se muestra un mensaje de error en la caja de fecha "To date should be after from date"</t>
-  </si>
-  <si>
-    <t>1. Ingresar la fecha desde - 2025-05-01
-2- Ingresar la fecha hasta - 2025-01-12
-3. Seleccionar todos los estados de sus solicitudes (Pending Approval, Scheduled, Taken)
-4. Ingresar nombre completo "diego paz verdu"
-5. Seleccionar sub unidad del empleado "QA Assurance"
-5. Clic en "Search"</t>
   </si>
   <si>
     <t>validar que no se permitan fechas que excedan el balance de dias</t>
@@ -521,20 +463,363 @@
     <t>HU-008 CP-024</t>
   </si>
   <si>
-    <t>HU-009 CP-025</t>
-  </si>
-  <si>
-    <t>HU-009 CP-026</t>
-  </si>
-  <si>
-    <t>HU-009 CP-027</t>
+    <t>Se muestra un mensaje "N records found" y una tabla en la parte inferior, con todos las solicitudes y sus respectivos datos</t>
+  </si>
+  <si>
+    <t>este casos de prueba puede pertenecer a otra HU que especifique que se va a probar las funcionalidades de busqueda</t>
+  </si>
+  <si>
+    <t>Buscar historial de empleado sin aplicar filtros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Ingresar nombre completo "diego paz verdu"
+2. Clic en "Search"</t>
+  </si>
+  <si>
+    <t>Se ingresa el nombre completo del empleado y se deja por defecto los otros campos (por defecto el rango de fecha es el año actual y el estado es "pending approval")</t>
+  </si>
+  <si>
+    <t>Buscar historial con estado específico</t>
+  </si>
+  <si>
+    <t>El rango de fecha por defecto es todo el año actual</t>
+  </si>
+  <si>
+    <t>1. El administrador debe estar ubicado en el modulo "leave", en la seccion "leave list".
+2. El empleado buscado debe tener al menos permiso aprobado</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se muestra un mensaje "N records found" y se listan solo las solicitudes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aprobadas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> del empleado</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se muestra un mensaje "2 records found" y se listan solo las solicitudes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aprobadas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> del empleado</t>
+    </r>
+  </si>
+  <si>
+    <t>HU-008 CP-025</t>
+  </si>
+  <si>
+    <t>1. El administrador debe estar ubicado en el modulo "leave", en la seccion "leave list".
+2. El empleado buscado debe tener al menos un permiso rechazado en el rango de fecha especificado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Ingresar nombre completo "diego paz verdu"
+2. Selecciónar el estado "schedule"
+3. Clic en "Search"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Seleccionar la fecha desde "2025-02-01"
+2. Seleccioncar la fecha hasta "2025-05-31"
+3. Ingresar nombre completo "diego paz verdu"
+4. Selecciónar el estado "rejected"
+5. Clic en "Search"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se muestra un mensaje "N records found" y solo solicitudes del empleado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rechazadas en el rango indicado</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se muestra un mensaje "1 record found" y la solicitud del empleado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rechazada en el rango indicado</t>
+    </r>
+  </si>
+  <si>
+    <t>HU-008 CP-026</t>
+  </si>
+  <si>
+    <t>1. El administrador debe estar ubicado en el modulo "leave", en la seccion "leave list".
+2. El empleado buscado debe tener al menos un permiso en alguno de los estados y debe pertenecer a una subunidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Ingresar nombre completo "diego paz verdu"
+2. Selecciónar todos los estados (Pending Approval, Rejected, Cancelled, Scheduled, Taken)
+3. Seleccionar subunidad "QA"
+5. Clic en "Search"</t>
+  </si>
+  <si>
+    <t>Se muestra un mensaje "N records found" y el historial de todas las solicitudes del empleado</t>
+  </si>
+  <si>
+    <t>Se muestra un mensaje "6 records found" y el historial de todas las solicitudes del empleado</t>
+  </si>
+  <si>
+    <t>Buscar historial completo con subunidad seleccionada</t>
+  </si>
+  <si>
+    <t>Buscar historial con estado especifico y rango de fechas</t>
+  </si>
+  <si>
+    <t>El rango de fecha por defecto es todo el año actual.
+Además, este CP valida si se muestra todo el historial completo correctamente con los filtros necesarios</t>
+  </si>
+  <si>
+    <t>Buscar historial con todos los campos combinados</t>
+  </si>
+  <si>
+    <t>HU-008 CP-027</t>
+  </si>
+  <si>
+    <t>1. El administrador debe estar ubicado en el modulo "leave", en la seccion "leave list".
+2. El empleado cumple con al menos una solicitud con todos esos criterios</t>
+  </si>
+  <si>
+    <t>1. Ingresar la fecha desde - 2025-01-01
+2- Ingresar la fecha hasta - 2025-24-08
+3. Seleccionar el estado "Taken"
+4. Seleccionar tipo de solicitud "vacations"
+4. Ingresar nombre completo "diego paz verdu"
+5. Seleccionar la sub unidad "QA"
+5. Clic en "Search"</t>
+  </si>
+  <si>
+    <t>Se muestra un mensaje "N records found"  y Se muestra coincidencia específica según los filtros aplicados</t>
+  </si>
+  <si>
+    <t>Se muestra un mensaje "4 records found"  y Se muestra coincidencia específica según los filtros aplicados</t>
+  </si>
+  <si>
+    <t>HU-008 CP-028</t>
+  </si>
+  <si>
+    <t>Buscar historial de un empleado sin solicitudes</t>
+  </si>
+  <si>
+    <t>1. El administrador debe estar ubicado en el modulo "leave", en la seccion "leave list". 
+2. El empleado no tiene solicitudes registradas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Ingresar nombre completo "diego paz verdu"
+2. Selecciónar todos los estados
+3. Clic en "Search"</t>
+  </si>
+  <si>
+    <t>Se muestra mensaje tipo “No records found”</t>
+  </si>
+  <si>
+    <t>HU-008 CP-029</t>
+  </si>
+  <si>
+    <t>Buscar historial con subunidad incorrecta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Ingresar nombre completo "diego paz verdu"
+2. Selecciónar todos los estados
+3. Seleccionar una sub unidad incorrecta "administracion"
+3. Clic en "Search"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscar el listado general de permisos tomados y pendientes </t>
+  </si>
+  <si>
+    <t>1. Seleccionar los estados (Pending Approval, Taken)
+5. Clic en "Search"</t>
+  </si>
+  <si>
+    <t>Se muestra un mensaje "X records found" y una tabla en la parte inferior, con todos las solicitudes y sus respectivos datos de acuerdo a los filtros especificados</t>
+  </si>
+  <si>
+    <t>Se muestra un mensaje "2 records found" y una tabla en la parte inferior, con todos las solicitudes y sus respectivos datos de acuerdo a los filtros especificados</t>
+  </si>
+  <si>
+    <t>HU-009 CP-030</t>
+  </si>
+  <si>
+    <t>HU-009 CP-031</t>
+  </si>
+  <si>
+    <t>HU-009 CP-032</t>
+  </si>
+  <si>
+    <t>HU-009 CP-033</t>
+  </si>
+  <si>
+    <t>En este caso de prueba se realiza correctamente el funcionamiento de la historia de usuario</t>
+  </si>
+  <si>
+    <t>1. Ingresar la fecha desde - 01-01-2024
+2- Ingresar la fecha hasta - 31-12-2025
+3. Seleccionar todos los estados de sus solicitudes (Pending Approval, Scheduled, Taken)
+5. Clic en "Search"</t>
+  </si>
+  <si>
+    <t>1. Ingresar la fecha desde - 2025-05-01
+2- Ingresar la fecha hasta - 2025-01-12
+3. Seleccionar todos los estados de sus solicitudes (Pending Approval, Scheduled, Taken)
+5. Clic en "Search"</t>
+  </si>
+  <si>
+    <t>1. No modificar ningun filtro de busqueda
+(por defecto es seleccionado el estado "pendding approval")
+5. Clic en "Search"</t>
+  </si>
+  <si>
+    <t>Se muestra un mensaje "X records found" y una tabla en la parte inferior, con todas las solicitudes pendientes</t>
+  </si>
+  <si>
+    <t>Se muestra un mensaje "4 records found" y una tabla en la parte inferior, con todas las solicitudes pendientes</t>
+  </si>
+  <si>
+    <t>Visualización general de solicitudes en el año actual (configuración por defecto)</t>
+  </si>
+  <si>
+    <t>Verificar el listado general de todas las solicitudes de empleados por intervalo de fecha</t>
+  </si>
+  <si>
+    <t>Filtrar lista por tipo de permiso</t>
+  </si>
+  <si>
+    <t>1. El administrador debe estar ubicado en el modulo "leave", en la seccion "leave list".
+2. Existen solicitudes registradas en el año actual.</t>
+  </si>
+  <si>
+    <t>Se muestra un mensaje "X records found" y con todos las solicitudes y sus respectivos datos de acuerdo a los filtros especificados</t>
+  </si>
+  <si>
+    <t>Se muestra un mensaje "X records found" y una tabla en la parte inferior, con todos las solicitudes y sus respectivos datos de acuerdo a annual leave</t>
+  </si>
+  <si>
+    <t>1. El administrador debe estar ubicado en el modulo "leave", en la seccion "leave list".
+2. Existen permisos registrados en el año actual con el filtro seleccionado ("annual leave").</t>
+  </si>
+  <si>
+    <t>Filtrar lista por subunidad (área)</t>
+  </si>
+  <si>
+    <t>1. El administrador debe estar ubicado en el modulo "leave", en la seccion "leave list".
+2. Existen permisos registrados en el año actual con el filtro seleccionado ("IT department").</t>
+  </si>
+  <si>
+    <t>1. Seleccionar un sub unidad "IT department"
+2. Seleccionar todos los estados de sus solicitudes (Pending Approval, Scheduled, Taken)
+3. Clic en "Search"</t>
+  </si>
+  <si>
+    <t>1. Seleccionar un tipo de permiso "Annual Leave"
+2. Seleccionar todos los estados de sus solicitudes (Pending Approval, Scheduled, Taken)
+3. Clic en "Search"</t>
+  </si>
+  <si>
+    <t>Se muestra un mensaje "X records found" y una tabla en la parte inferior, con todos las solicitudes y sus respectivos datos de acuerdo a IT department</t>
+  </si>
+  <si>
+    <t>Buscar permisos con subunidad inexistente</t>
+  </si>
+  <si>
+    <t>1. El administrador debe estar ubicado en el modulo "leave", en la seccion "leave list".</t>
+  </si>
+  <si>
+    <t>1. Seleccionar todos los estados de sus solicitudes (Pending Approval, Scheduled, Taken)
+2. Seleccionar una sub unidad sin registros "tecnico"
+5. Clic en "Search"</t>
+  </si>
+  <si>
+    <t>Buscar permisos en fechas sin registros</t>
+  </si>
+  <si>
+    <t>1. Ingresar la fecha desde - 2026-05-01
+2- Ingresar la fecha hasta - 2026-12-31
+3. Seleccionar todos los estados de sus solicitudes (Pending Approval, Scheduled, Taken)
+5. Clic en "Search"</t>
+  </si>
+  <si>
+    <t>HU-009 CP-034</t>
+  </si>
+  <si>
+    <t>HU-009 CP-035</t>
+  </si>
+  <si>
+    <t>HU-009 CP-036</t>
+  </si>
+  <si>
+    <t>HU-009 CP-037</t>
+  </si>
+  <si>
+    <t>1. El administrador debe estar ubicado en el modulo "leave", en la seccion "leave list".
+2. Existen permisos registradas en el año actual.</t>
+  </si>
+  <si>
+    <t>Validar intervalo de fecha incorretas al buscar permisos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,6 +852,21 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -676,7 +976,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1168,13 +1468,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>541020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1236047</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1104900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1211,15 +1511,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>693420</xdr:rowOff>
+      <xdr:rowOff>535737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1230295</xdr:colOff>
+      <xdr:colOff>1256795</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1242060</xdr:rowOff>
+      <xdr:rowOff>1089660</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1242,8 +1542,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10469880" y="891540"/>
-          <a:ext cx="1169335" cy="548640"/>
+          <a:off x="10485120" y="733857"/>
+          <a:ext cx="1180595" cy="553923"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1260,15 +1560,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>800100</xdr:rowOff>
+      <xdr:colOff>11128</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>516237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1264920</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1365024</xdr:rowOff>
+      <xdr:colOff>1211133</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1075764</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1291,8 +1591,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10675620" y="998220"/>
-          <a:ext cx="1211580" cy="564924"/>
+          <a:off x="10634304" y="10888402"/>
+          <a:ext cx="1200005" cy="559527"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1305,13 +1605,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1866900</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>541021</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1214714</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>982981</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1348,15 +1648,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>71893</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>507220</xdr:rowOff>
+      <xdr:colOff>98788</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1146313</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>879483</xdr:rowOff>
+      <xdr:colOff>1173208</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>372263</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1379,7 +1679,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10693510" y="2740211"/>
+          <a:off x="10721964" y="15159583"/>
           <a:ext cx="1074420" cy="372263"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1389,6 +1689,45 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>98788</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>681583</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1074420" cy="372263"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC04DCFA-59AF-4B40-BBC4-988D24804E42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10721964" y="15159583"/>
+          <a:ext cx="1074420" cy="372263"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3470,8 +3809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD43CBEF-11BA-4209-BFDD-2FBDF5C20F9C}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3524,10 +3863,10 @@
         <v>74</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>76</v>
@@ -3545,45 +3884,47 @@
       <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>106</v>
+      <c r="B3" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -3593,22 +3934,22 @@
     </row>
     <row r="5" spans="1:9" ht="187.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="8" t="s">
@@ -3618,22 +3959,22 @@
     </row>
     <row r="6" spans="1:9" ht="216" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="7" t="s">
@@ -3643,22 +3984,22 @@
     </row>
     <row r="7" spans="1:9" ht="212.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="7" t="s">
@@ -3897,8 +4238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEBC15F-3F56-43C1-8C34-D756CDE58D50}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3906,7 +4247,7 @@
     <col min="1" max="1" width="15.109375" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="27.88671875" customWidth="1"/>
     <col min="7" max="7" width="19.109375" customWidth="1"/>
@@ -3945,7 +4286,7 @@
     </row>
     <row r="2" spans="1:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>75</v>
@@ -3970,7 +4311,7 @@
     </row>
     <row r="3" spans="1:9" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>81</v>
@@ -3995,7 +4336,7 @@
     </row>
     <row r="4" spans="1:9" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>85</v>
@@ -4257,17 +4598,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEF3AEA-C641-48D6-8BA3-37B5A9916FB2}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="28.109375" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="27.88671875" customWidth="1"/>
@@ -4307,120 +4648,188 @@
     </row>
     <row r="2" spans="1:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>95</v>
+        <v>111</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>95</v>
+        <v>112</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+    <row r="5" spans="1:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="H5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+    <row r="7" spans="1:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+    <row r="8" spans="1:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
+      <c r="H8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="10.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
@@ -4586,6 +4995,72 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4595,10 +5070,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC58DDE-7AA3-4E8C-8BEF-9A7E30D6A29E}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4645,133 +5120,202 @@
     </row>
     <row r="2" spans="1:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>88</v>
+        <v>155</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="3"/>
+        <v>164</v>
+      </c>
       <c r="H2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>89</v>
+        <v>156</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="3"/>
+        <v>169</v>
+      </c>
       <c r="H3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>90</v>
+        <v>157</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>102</v>
+        <v>175</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>170</v>
+      </c>
       <c r="H4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="H6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+    <row r="8" spans="1:9" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+    <row r="9" spans="1:9" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
@@ -4949,6 +5493,50 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
